--- a/medicine/Enfance/Edith_Nesbit/Edith_Nesbit.xlsx
+++ b/medicine/Enfance/Edith_Nesbit/Edith_Nesbit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edith Nesbit (Kennington(Surrey), 15 août 1858 - New Romney (Kent),
 4 mai 1924) est une écrivaine britannique, auteur de littérature d'enfance et de jeunesse, également militante socialiste.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née dans un futur faubourg de Londres, fille d'un maître d'école qui meurt peu avant son quatrième anniversaire, Edith Nesbit passe son enfance en France et en Allemagne, la santé fragile de sa sœur nécessitant un changement d'air fréquent. 
 Très tôt disciple de William Morris, elle épouse en 1880, à l'âge de dix-neuf ans et enceinte de sept mois, Hubert Bland, un employé de banque. Ils ne vivent pas tout de suite ensemble, et leur mariage reste ouvert, Bland ayant deux enfants de sa maîtresse Alice Hoatson, Rosamund et John, qu'Edith élèvera comme les siens. Ses propres enfants sont Paul (1880-1940), à qui The Railway Children est dédié, Iris (née en 1881) et Fabian (1885-1900), à qui sont dédiés Five Children and It (Drôle de fée), Chasseurs de trésor et leurs suites, et qui meurt à l'âge de quinze ans. 
